--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>4.94765117764473e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>4.94765117764473e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86269.67739539414</v>
+        <v>5988147.316215586</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86269.67739539414</v>
+        <v>5988147.316215586</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493530195.173004</v>
+        <v>52961462.57242666</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14657.33264693376</v>
+        <v>1094842.710187229</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29314.26883653709</v>
+        <v>2189685.420374458</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>43974.24594808617</v>
+        <v>3284528.130561687</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59610.39705568106</v>
+        <v>4310762.726946253</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74576.02902612113</v>
+        <v>5404508.096238251</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89541.6609965612</v>
+        <v>6498253.465530247</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>104507.2929670013</v>
+        <v>7591998.834822238</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>119472.9249374414</v>
+        <v>8685744.204114228</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135109.0760450363</v>
+        <v>9711978.800498787</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150089.1605854568</v>
+        <v>10804741.90836146</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165054.7925558969</v>
+        <v>11898487.27765345</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180020.424526337</v>
+        <v>12992232.64694544</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>194986.0564967771</v>
+        <v>14085978.01623745</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>209966.1410371976</v>
+        <v>15178741.12410015</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226556.9658435252</v>
+        <v>16083011.7615401</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27052,13 +27052,13 @@
         <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>90</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
